--- a/mitienda/src/data/listaProductos.xlsx
+++ b/mitienda/src/data/listaProductos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Material POSTGRADOS\CODERHOUSE\3. ReactJS (16955)\DESAFIOS\mitienda\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6044BC-64EB-4D60-8261-772DBB583FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC60EBF5-A208-4BB8-9E9B-6D6648995E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{3C1A2436-EC64-48AE-97CC-C4597AA4688F}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">listaProductos!$A$1:$J$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="163">
   <si>
     <t>accesorio</t>
   </si>
@@ -436,9 +435,6 @@
     <t>snoopy</t>
   </si>
   <si>
-    <t>nina</t>
-  </si>
-  <si>
     <t>coral</t>
   </si>
   <si>
@@ -524,6 +520,12 @@
   </si>
   <si>
     <t>stock</t>
+  </si>
+  <si>
+    <t>IdClasficación</t>
+  </si>
+  <si>
+    <t>IdGenero</t>
   </si>
 </sst>
 </file>
@@ -572,7 +574,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -594,8 +602,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="1" xr16:uid="{7D4A56A2-2FD0-4943-90F7-7514F6218CD2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="22">
-    <queryTableFields count="10">
+  <queryTableRefresh nextId="24" unboundColumnsRight="2">
+    <queryTableFields count="12">
       <queryTableField id="12" name="id" tableColumnId="1"/>
       <queryTableField id="13" name="clasificacion" tableColumnId="2"/>
       <queryTableField id="14" name="tipo" tableColumnId="3"/>
@@ -606,16 +614,18 @@
       <queryTableField id="19" name="precio" tableColumnId="8"/>
       <queryTableField id="11" dataBound="0" tableColumnId="11"/>
       <queryTableField id="20" name="img" tableColumnId="9"/>
+      <queryTableField id="22" dataBound="0" tableColumnId="10"/>
+      <queryTableField id="23" dataBound="0" tableColumnId="12"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA90D056-4F86-4DE6-9183-BAEC54425CE0}" name="listaProductos" displayName="listaProductos" ref="A1:J80" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J80" xr:uid="{BA90D056-4F86-4DE6-9183-BAEC54425CE0}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F0AEF119-BE71-483B-8F4E-EAEE36A96068}" uniqueName="1" name="id" queryTableFieldId="12" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA90D056-4F86-4DE6-9183-BAEC54425CE0}" name="listaProductos" displayName="listaProductos" ref="A1:L80" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:L80" xr:uid="{BA90D056-4F86-4DE6-9183-BAEC54425CE0}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{F0AEF119-BE71-483B-8F4E-EAEE36A96068}" uniqueName="1" name="id" queryTableFieldId="12" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{7CCF6AEC-57B0-44B2-B173-C7FA7C1B08FB}" uniqueName="2" name="clasificacion" queryTableFieldId="13"/>
     <tableColumn id="3" xr3:uid="{3604E10F-B460-4B30-A009-FB559EDCB777}" uniqueName="3" name="tipo" queryTableFieldId="14"/>
     <tableColumn id="4" xr3:uid="{031384C2-8068-46E8-8C75-3BF309952241}" uniqueName="4" name="nombre" queryTableFieldId="15"/>
@@ -623,10 +633,16 @@
     <tableColumn id="6" xr3:uid="{910D5E35-826E-4972-A48F-4973BBB6D1CD}" uniqueName="6" name="genero" queryTableFieldId="17"/>
     <tableColumn id="7" xr3:uid="{557F21E6-43D5-4704-9025-D34574C5344F}" uniqueName="7" name="color" queryTableFieldId="18"/>
     <tableColumn id="8" xr3:uid="{432772A7-F46E-4659-ACC4-CAE96DB966B3}" uniqueName="8" name="precio" queryTableFieldId="19"/>
-    <tableColumn id="11" xr3:uid="{018A4BF7-3AF2-418D-9B9C-4E97441B43F4}" uniqueName="11" name="stock" queryTableFieldId="11" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{018A4BF7-3AF2-418D-9B9C-4E97441B43F4}" uniqueName="11" name="stock" queryTableFieldId="11" dataDxfId="2">
       <calculatedColumnFormula>RANDBETWEEN(5,20)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{ED895BA0-B7B4-4E9B-A22A-57C03807BB1D}" uniqueName="9" name="img" queryTableFieldId="20"/>
+    <tableColumn id="10" xr3:uid="{2AE39C54-CC78-4ACE-9D94-D7F91CE2EB4C}" uniqueName="10" name="IdClasficación" queryTableFieldId="22" dataDxfId="1">
+      <calculatedColumnFormula>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{B813C5D0-C344-4D14-A4CD-500F272D5A2B}" uniqueName="12" name="IdGenero" queryTableFieldId="23" dataDxfId="0">
+      <calculatedColumnFormula>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -929,23 +945,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3A9513-E27C-4A89-9A7E-C5AED3C3978D}">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="4.46875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.64453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.64453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.46875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.64453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5859375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.05859375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.1171875" customWidth="1"/>
-    <col min="10" max="11" width="60.76171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="60.76171875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.17578125" customWidth="1"/>
     <col min="12" max="12" width="20.46875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.9375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.17578125" bestFit="1" customWidth="1"/>
@@ -958,39 +974,45 @@
     <col min="21" max="21" width="14.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
         <v>152</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>153</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>154</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>155</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>156</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>157</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>158</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" t="s">
         <v>159</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>161</v>
       </c>
-      <c r="J1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="L1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1017,13 +1039,21 @@
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I33" ca="1" si="0">RANDBETWEEN(5,20)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K2">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1050,13 +1080,21 @@
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K3">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1083,13 +1121,21 @@
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K4">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1116,13 +1162,21 @@
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K5">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1149,13 +1203,21 @@
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K6">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1182,13 +1244,21 @@
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K7">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1215,13 +1285,21 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K8">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1248,13 +1326,21 @@
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K9">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1281,13 +1367,21 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K10">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1314,13 +1408,21 @@
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K11">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1347,13 +1449,21 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K12">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1380,13 +1490,21 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K13">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1413,13 +1531,21 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K14">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1446,13 +1572,21 @@
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K15">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1479,13 +1613,21 @@
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K16">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1512,13 +1654,21 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K17">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1550,8 +1700,16 @@
       <c r="J18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K18">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1578,13 +1736,21 @@
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K19">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1616,8 +1782,16 @@
       <c r="J20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K20">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1644,13 +1818,21 @@
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K21">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1682,8 +1864,16 @@
       <c r="J22" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K22">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1710,13 +1900,21 @@
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K23">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1743,13 +1941,21 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K24">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1776,13 +1982,21 @@
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J25" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K25">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1809,13 +2023,21 @@
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K26">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1842,13 +2064,21 @@
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J27" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K27">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1875,13 +2105,21 @@
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K28">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1908,13 +2146,21 @@
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K29">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1946,8 +2192,16 @@
       <c r="J30" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K30">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1974,13 +2228,21 @@
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K31">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2007,13 +2269,21 @@
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J32" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K32">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2040,13 +2310,21 @@
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K33">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2073,13 +2351,21 @@
       </c>
       <c r="I34">
         <f t="shared" ref="I34:I65" ca="1" si="1">RANDBETWEEN(5,20)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K34">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2106,13 +2392,21 @@
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K35">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2139,13 +2433,21 @@
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J36" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K36">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2172,13 +2474,21 @@
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J37" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K37">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2205,13 +2515,21 @@
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J38" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K38">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2238,13 +2556,21 @@
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J39" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K39">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2271,13 +2597,21 @@
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J40" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K40">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2304,13 +2638,21 @@
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J41" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K41">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2337,13 +2679,21 @@
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J42" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K42">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2370,13 +2720,21 @@
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J43" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K43">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2403,13 +2761,21 @@
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K44">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2436,13 +2802,21 @@
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J45" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K45">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2469,13 +2843,21 @@
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J46" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K46">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2502,13 +2884,21 @@
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J47" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K47">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2535,13 +2925,21 @@
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J48" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K48">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2568,13 +2966,21 @@
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J49" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K49">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2601,13 +3007,21 @@
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J50" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K50">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2634,13 +3048,21 @@
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J51" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K51">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2667,13 +3089,21 @@
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J52" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K52">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2700,13 +3130,21 @@
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J53" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K53">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2733,13 +3171,21 @@
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J54" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K54">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2766,13 +3212,21 @@
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J55" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K55">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2799,13 +3253,21 @@
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J56" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K56">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L56">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2832,13 +3294,21 @@
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J57" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K57">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2865,13 +3335,21 @@
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J58" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K58">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L58">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2898,13 +3376,21 @@
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J59" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K59">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2936,8 +3422,16 @@
       <c r="J60" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K60">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2964,13 +3458,21 @@
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J61" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K61">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2997,13 +3499,21 @@
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J62" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K62">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3030,13 +3540,21 @@
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J63" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K63">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3063,13 +3581,21 @@
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J64" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K64">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3101,8 +3627,16 @@
       <c r="J65" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K65">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3129,13 +3663,21 @@
       </c>
       <c r="I66">
         <f t="shared" ref="I66:I80" ca="1" si="2">RANDBETWEEN(5,20)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J66" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K66">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3162,13 +3704,21 @@
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J67" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K67">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L67">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3195,13 +3745,21 @@
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J68" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K68">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L68">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3228,13 +3786,21 @@
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J69" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K69">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3261,13 +3827,21 @@
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J70" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="K70">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3284,23 +3858,31 @@
         <v>131</v>
       </c>
       <c r="F71" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" t="s">
         <v>132</v>
-      </c>
-      <c r="G71" t="s">
-        <v>133</v>
       </c>
       <c r="H71">
         <v>470</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.5">
+        <v>133</v>
+      </c>
+      <c r="K71">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L71">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3311,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E72" t="s">
         <v>56</v>
@@ -3320,20 +3902,28 @@
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H72">
         <v>444</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J72" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.5">
+        <v>136</v>
+      </c>
+      <c r="K72">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3344,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E73" t="s">
         <v>56</v>
@@ -3360,13 +3950,21 @@
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J73" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.5">
+        <v>138</v>
+      </c>
+      <c r="K73">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L73">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3377,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E74" t="s">
         <v>33</v>
@@ -3393,13 +3991,21 @@
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J74" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.5">
+        <v>139</v>
+      </c>
+      <c r="K74">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3426,13 +4032,21 @@
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J75" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.5">
+        <v>140</v>
+      </c>
+      <c r="K75">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3443,10 +4057,10 @@
         <v>16</v>
       </c>
       <c r="D76" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76" t="s">
         <v>142</v>
-      </c>
-      <c r="E76" t="s">
-        <v>143</v>
       </c>
       <c r="F76" t="s">
         <v>4</v>
@@ -3459,13 +4073,21 @@
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
+        <v>143</v>
+      </c>
+      <c r="K76">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L76">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3476,7 +4098,7 @@
         <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E77" t="s">
         <v>18</v>
@@ -3492,13 +4114,21 @@
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J77" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.5">
+        <v>145</v>
+      </c>
+      <c r="K77">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L77">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3512,7 +4142,7 @@
         <v>109</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F78" t="s">
         <v>4</v>
@@ -3525,13 +4155,21 @@
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J78" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.5">
+        <v>147</v>
+      </c>
+      <c r="K78">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3558,13 +4196,21 @@
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J79" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.5">
+        <v>148</v>
+      </c>
+      <c r="K79">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3578,7 +4224,7 @@
         <v>109</v>
       </c>
       <c r="E80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F80" t="s">
         <v>4</v>
@@ -3591,10 +4237,18 @@
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J80" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="K80">
+        <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <f>IF(listaProductos[[#This Row],[genero]]="mujer",1,IF(listaProductos[[#This Row],[genero]]="hombre",2,IF(listaProductos[[#This Row],[genero]]="unisex",3,IF(listaProductos[[#This Row],[genero]]="nino",4))))</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/mitienda/src/data/listaProductos.xlsx
+++ b/mitienda/src/data/listaProductos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Material POSTGRADOS\CODERHOUSE\3. ReactJS (16955)\DESAFIOS\mitienda\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC60EBF5-A208-4BB8-9E9B-6D6648995E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8701DFFA-A567-4CAB-B65B-AF3A35B794AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{3C1A2436-EC64-48AE-97CC-C4597AA4688F}"/>
   </bookViews>
@@ -57,36 +57,21 @@
     <t>negro</t>
   </si>
   <si>
-    <t>./img/accesorio_casual_billetera_tommy-hilfiger_hombre_negro_cuero.jpg</t>
-  </si>
-  <si>
     <t>gafas</t>
   </si>
   <si>
     <t>timberland</t>
   </si>
   <si>
-    <t>./img/accesorio_casual_gafas_timberland_hombre_negro.jpg</t>
-  </si>
-  <si>
     <t>reloj</t>
   </si>
   <si>
     <t>azul</t>
   </si>
   <si>
-    <t>./img/accesorio_casual_reloj_tommy-hilfiger_hombre_azul.jpg</t>
-  </si>
-  <si>
-    <t>./img/accesorio_casual_reloj_tommy-hilfiger_hombre_negro.jpg</t>
-  </si>
-  <si>
     <t>reloj-pro</t>
   </si>
   <si>
-    <t>./img/accesorio_casual_reloj-pro_tommy-hilfiger_hombre_negro.jpg</t>
-  </si>
-  <si>
     <t>deporte</t>
   </si>
   <si>
@@ -102,36 +87,18 @@
     <t>verde</t>
   </si>
   <si>
-    <t>./img/accesorio_deporte_balon_nike_unisex_verde.jpg</t>
-  </si>
-  <si>
     <t>oakley</t>
   </si>
   <si>
-    <t>./img/accesorio_deporte_gafas_oakley_hombre_negro_azul.jpg</t>
-  </si>
-  <si>
-    <t>./img/accesorio_deporte_gafas_oakley_hombre_negro_naranja.jpg</t>
-  </si>
-  <si>
     <t>gorra</t>
   </si>
   <si>
     <t>blanco</t>
   </si>
   <si>
-    <t>./img/accesorio_deporte_gorra_nike_hombre_blanco.jpg</t>
-  </si>
-  <si>
     <t>gris</t>
   </si>
   <si>
-    <t>./img/accesorio_deporte_gorra_oakley_hombre_gris.jpg</t>
-  </si>
-  <si>
-    <t>./img/accesorio_deporte_gorra_oakley_hombre_negro.jpg</t>
-  </si>
-  <si>
     <t>trekking</t>
   </si>
   <si>
@@ -144,15 +111,9 @@
     <t>rojo</t>
   </si>
   <si>
-    <t>./img/accesorio_trekking_bandana_the-north-face_hombre_rojo.jpg</t>
-  </si>
-  <si>
     <t>gorro</t>
   </si>
   <si>
-    <t>./img/accesorio_trekking_gorro_the-north-face_hombre_negro.jpg</t>
-  </si>
-  <si>
     <t>calzado</t>
   </si>
   <si>
@@ -165,117 +126,42 @@
     <t>cafe</t>
   </si>
   <si>
-    <t>./img/calzado_casual_botas_timberland_mujer_cafe.jpg</t>
-  </si>
-  <si>
     <t>marron</t>
   </si>
   <si>
-    <t>./img/calzado_casual_botas_timberland_mujer_marron.jpg</t>
-  </si>
-  <si>
     <t>nino</t>
   </si>
   <si>
-    <t>./img/calzado_casual_botas_timberland_nino_negro.jpg</t>
-  </si>
-  <si>
     <t>sandalia</t>
   </si>
   <si>
-    <t>./img/calzado_casual_sandalia_timberland_mujer_cafe.jpg</t>
-  </si>
-  <si>
     <t>miel</t>
   </si>
   <si>
-    <t>./img/calzado_casual_sandalia_timberland_mujer_miel.jpg</t>
-  </si>
-  <si>
-    <t>./img/calzado_casual_sandalia_timberland_mujer_negro.jpg</t>
-  </si>
-  <si>
-    <t>./img/calzado_casual_sandalia_timberland_mujer_rojo.jpg</t>
-  </si>
-  <si>
-    <t>./img/calzado_casual_sandalia_tommy-hilfiger_mujer_azul.jpg</t>
-  </si>
-  <si>
     <t>tenis</t>
   </si>
   <si>
-    <t>./img/calzado_casual_tenis_nike_hombre_negro.jpg</t>
-  </si>
-  <si>
     <t>polo-ralph-lauren</t>
   </si>
   <si>
-    <t>./img/calzado_casual_tenis_polo-ralph-lauren_hombre_gris.jpg</t>
-  </si>
-  <si>
     <t>puma</t>
   </si>
   <si>
-    <t>./img/calzado_casual_tenis_puma_mujer_blanco.jpg</t>
-  </si>
-  <si>
-    <t>./img/calzado_casual_tenis_timberland_hombre_azul.jpg</t>
-  </si>
-  <si>
-    <t>./img/calzado_casual_tenis_timberland_hombre_azul_cafe.jpg</t>
-  </si>
-  <si>
-    <t>./img/calzado_casual_tenis_timberland_hombre_azul_slim.jpg</t>
-  </si>
-  <si>
-    <t>./img/calzado_casual_tenis_timberland_hombre_gris.jpg</t>
-  </si>
-  <si>
     <t>olivo</t>
   </si>
   <si>
-    <t>./img/calzado_casual_tenis_timberland_hombre_olivo.jpg</t>
-  </si>
-  <si>
-    <t>./img/calzado_casual_tenis_timberland_mujer_gris.jpg</t>
-  </si>
-  <si>
-    <t>./img/calzado_casual_tenis_tommy-hilfiger_mujer_blanco.jpg</t>
-  </si>
-  <si>
-    <t>./img/calzado_casual_tenis_tommy-hilfiger_mujer_negro.jpg</t>
-  </si>
-  <si>
     <t>botin</t>
   </si>
   <si>
     <t>salmon</t>
   </si>
   <si>
-    <t>./img/calzado_deporte_botin_nike_hombre_salmon.jpg</t>
-  </si>
-  <si>
-    <t>./img/calzado_deporte_tenis_nike_hombre_negro.jpg</t>
-  </si>
-  <si>
     <t>rosado</t>
   </si>
   <si>
-    <t>./img/calzado_deporte_tenis_nike_mujer_rosado.jpg</t>
-  </si>
-  <si>
-    <t>./img/calzado_deporte_tenis_puma_hombre_azul.jpg</t>
-  </si>
-  <si>
-    <t>./img/calzado_deporte_tenis_puma_mujer_rosado.jpg</t>
-  </si>
-  <si>
     <t>skechers</t>
   </si>
   <si>
-    <t>./img/calzado_deporte_tenis_skechers_hombre_negro.jpg</t>
-  </si>
-  <si>
     <t>informal</t>
   </si>
   <si>
@@ -285,87 +171,30 @@
     <t>nautica</t>
   </si>
   <si>
-    <t>./img/calzado_informal_playera_nautica_hombre_azul.jpg</t>
-  </si>
-  <si>
-    <t>./img/calzado_informal_playera_nautica_hombre_rojo.jpg</t>
-  </si>
-  <si>
-    <t>./img/calzado_informal_playera_puma_hombre_azul.jpg</t>
-  </si>
-  <si>
-    <t>./img/calzado_informal_playera_the-north-face_mujer_azul.jpg</t>
-  </si>
-  <si>
     <t>playera-slim</t>
   </si>
   <si>
-    <t>./img/calzado_informal_playera-slim_nautica_hombre_rojo.jpg</t>
-  </si>
-  <si>
     <t>trabajo</t>
   </si>
   <si>
     <t>bota</t>
   </si>
   <si>
-    <t>./img/calzado_trabajo_bota_timberland_hombre_cafe.jpg</t>
-  </si>
-  <si>
-    <t>./img/calzado_trekking_bota_the-north-face_hombre_cafe.jpg</t>
-  </si>
-  <si>
     <t>vestir</t>
   </si>
   <si>
     <t>camisa</t>
   </si>
   <si>
-    <t>./img/vestir_casual_camisa_polo-ralph-lauren_hombre_azul_rayas.jpg</t>
-  </si>
-  <si>
-    <t>./img/vestir_casual_camisa_polo-ralph-lauren_hombre_olivo.jpg</t>
-  </si>
-  <si>
-    <t>./img/vestir_casual_camisa_polo-ralph-lauren_hombre_salmon.jpg</t>
-  </si>
-  <si>
-    <t>./img/vestir_casual_camisa_polo-ralph-lauren_hombre_verde_cuadros.jpg</t>
-  </si>
-  <si>
     <t>chaqueta</t>
   </si>
   <si>
-    <t>./img/vestir_casual_chaqueta_polo-ralph-lauren_hombre_azul.jpg</t>
-  </si>
-  <si>
-    <t>./img/vestir_casual_chaqueta_polo-ralph-lauren_hombre_rojo.jpg</t>
-  </si>
-  <si>
-    <t>./img/vestir_casual_chaqueta_the-north-face_hombre_azul.jpg</t>
-  </si>
-  <si>
-    <t>./img/vestir_casual_chaqueta_the-north-face_hombre_gris.jpg</t>
-  </si>
-  <si>
     <t>pantalon</t>
   </si>
   <si>
-    <t>./img/vestir_casual_pantalon_polo-ralph-lauren_hombre_azul.jpg</t>
-  </si>
-  <si>
     <t>caqui</t>
   </si>
   <si>
-    <t>./img/vestir_casual_pantalon_polo-ralph-lauren_hombre_caqui.jpg</t>
-  </si>
-  <si>
-    <t>./img/vestir_casual_pantalon_polo-ralph-lauren_hombre_gris.jpg</t>
-  </si>
-  <si>
-    <t>./img/vestir_casual_pantalon_polo-ralph-lauren_hombre_olivo.jpg</t>
-  </si>
-  <si>
     <t>remera</t>
   </si>
   <si>
@@ -375,123 +204,57 @@
     <t>navy</t>
   </si>
   <si>
-    <t>./img/vestir_casual_remera_calvin-klein_hombre_navy.jpg</t>
-  </si>
-  <si>
-    <t>./img/vestir_casual_remera_calvin-klein_mujer_salmon.jpg</t>
-  </si>
-  <si>
     <t>frida-kahlo</t>
   </si>
   <si>
-    <t>./img/vestir_casual_remera_frida-kahlo_mujer_azul.jpg</t>
-  </si>
-  <si>
     <t>gap</t>
   </si>
   <si>
-    <t>./img/vestir_casual_remera_gap_hombre_navy.jpg</t>
-  </si>
-  <si>
     <t>negra</t>
   </si>
   <si>
-    <t>./img/vestir_casual_remera_gap_hombre_negra.jpg</t>
-  </si>
-  <si>
-    <t>./img/vestir_casual_remera_gap_unisex_verde.jpg</t>
-  </si>
-  <si>
     <t>harry-potter</t>
   </si>
   <si>
-    <t>./img/vestir_casual_remera_harry-potter_mujer_gris.jpg</t>
-  </si>
-  <si>
     <t>levis</t>
   </si>
   <si>
-    <t>./img/vestir_casual_remera_levis_hombre_gris.jpg</t>
-  </si>
-  <si>
     <t>nickelodeon</t>
   </si>
   <si>
-    <t>./img/vestir_casual_remera_nickelodeon_mujer_azul.jpg</t>
-  </si>
-  <si>
-    <t>./img/vestir_casual_remera_nike_hombre_gris.jpg</t>
-  </si>
-  <si>
     <t>reebok</t>
   </si>
   <si>
-    <t>./img/vestir_casual_remera_reebok_hombre_gris.jpg</t>
-  </si>
-  <si>
-    <t>./img/vestir_casual_remera_reebok_mujer_negro.jpg</t>
-  </si>
-  <si>
     <t>snoopy</t>
   </si>
   <si>
     <t>coral</t>
   </si>
   <si>
-    <t>./img/vestir_casual_remera_snoopy_nina_coral.jpg</t>
-  </si>
-  <si>
     <t>saco</t>
   </si>
   <si>
     <t>beige</t>
   </si>
   <si>
-    <t>./img/vestir_casual_saco_polo-ralph-lauren_hombre_beige.jpg</t>
-  </si>
-  <si>
     <t>sweater-hoodie</t>
   </si>
   <si>
-    <t>./img/vestir_casual_sweater-hoodie_polo-ralph-lauren_hombre_azul.jpg</t>
-  </si>
-  <si>
-    <t>./img/vestir_casual_sweater-hoodie_the-north-face_mujer_rosado.jpg</t>
-  </si>
-  <si>
-    <t>./img/vestir_deporte_chaqueta_nike_hombre_azul.jpg</t>
-  </si>
-  <si>
     <t>conjunto-ciclismo</t>
   </si>
   <si>
     <t>xtiger</t>
   </si>
   <si>
-    <t>./img/vestir_deporte_conjunto-ciclismo_xtiger_hombre_negro.jpg</t>
-  </si>
-  <si>
     <t>polo</t>
   </si>
   <si>
-    <t>./img/vestir_deporte_polo_nike_hombre_negro.jpg</t>
-  </si>
-  <si>
     <t>adidas</t>
   </si>
   <si>
-    <t>./img/vestir_deporte_remera_adidas_hombre_blanco.jpg</t>
-  </si>
-  <si>
-    <t>./img/vestir_deporte_remera_nike_hombre_gris.jpg</t>
-  </si>
-  <si>
     <t>under-armour</t>
   </si>
   <si>
-    <t>./img/vestir_deporte_remera_under-armour_hombre_azul.jpg</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -501,9 +264,6 @@
     <t>tipo</t>
   </si>
   <si>
-    <t>nombre</t>
-  </si>
-  <si>
     <t>marca</t>
   </si>
   <si>
@@ -513,19 +273,259 @@
     <t>color</t>
   </si>
   <si>
-    <t>precio</t>
-  </si>
-  <si>
-    <t>img</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>IdClasficación</t>
-  </si>
-  <si>
     <t>IdGenero</t>
+  </si>
+  <si>
+    <t>pictureUrl</t>
+  </si>
+  <si>
+    <t>images/accesorio_casual_billetera_tommy-hilfiger_hombre_negro_cuero.jpg</t>
+  </si>
+  <si>
+    <t>images/accesorio_casual_gafas_timberland_hombre_negro.jpg</t>
+  </si>
+  <si>
+    <t>images/accesorio_casual_reloj_tommy-hilfiger_hombre_azul.jpg</t>
+  </si>
+  <si>
+    <t>images/accesorio_casual_reloj_tommy-hilfiger_hombre_negro.jpg</t>
+  </si>
+  <si>
+    <t>images/accesorio_casual_reloj-pro_tommy-hilfiger_hombre_negro.jpg</t>
+  </si>
+  <si>
+    <t>images/accesorio_deporte_balon_nike_unisex_verde.jpg</t>
+  </si>
+  <si>
+    <t>images/accesorio_deporte_gafas_oakley_hombre_negro_azul.jpg</t>
+  </si>
+  <si>
+    <t>images/accesorio_deporte_gafas_oakley_hombre_negro_naranja.jpg</t>
+  </si>
+  <si>
+    <t>images/accesorio_deporte_gorra_nike_hombre_blanco.jpg</t>
+  </si>
+  <si>
+    <t>images/accesorio_deporte_gorra_oakley_hombre_gris.jpg</t>
+  </si>
+  <si>
+    <t>images/accesorio_deporte_gorra_oakley_hombre_negro.jpg</t>
+  </si>
+  <si>
+    <t>images/accesorio_trekking_bandana_the-north-face_hombre_rojo.jpg</t>
+  </si>
+  <si>
+    <t>images/accesorio_trekking_gorro_the-north-face_hombre_negro.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_botas_timberland_mujer_cafe.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_botas_timberland_mujer_marron.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_botas_timberland_nino_negro.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_sandalia_timberland_mujer_cafe.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_sandalia_timberland_mujer_miel.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_sandalia_timberland_mujer_negro.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_sandalia_timberland_mujer_rojo.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_sandalia_tommy-hilfiger_mujer_azul.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_tenis_nike_hombre_negro.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_tenis_polo-ralph-lauren_hombre_gris.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_tenis_puma_mujer_blanco.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_tenis_timberland_hombre_azul.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_tenis_timberland_hombre_azul_cafe.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_tenis_timberland_hombre_azul_slim.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_tenis_timberland_hombre_gris.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_tenis_timberland_hombre_olivo.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_tenis_timberland_mujer_gris.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_tenis_tommy-hilfiger_mujer_blanco.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_casual_tenis_tommy-hilfiger_mujer_negro.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_deporte_botin_nike_hombre_salmon.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_deporte_tenis_nike_hombre_negro.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_deporte_tenis_nike_mujer_rosado.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_deporte_tenis_puma_hombre_azul.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_deporte_tenis_puma_mujer_rosado.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_deporte_tenis_skechers_hombre_negro.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_informal_playera_nautica_hombre_azul.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_informal_playera_nautica_hombre_rojo.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_informal_playera_puma_hombre_azul.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_informal_playera_the-north-face_mujer_azul.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_informal_playera-slim_nautica_hombre_rojo.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_trabajo_bota_timberland_hombre_cafe.jpg</t>
+  </si>
+  <si>
+    <t>images/calzado_trekking_bota_the-north-face_hombre_cafe.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_camisa_polo-ralph-lauren_hombre_azul_rayas.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_camisa_polo-ralph-lauren_hombre_olivo.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_camisa_polo-ralph-lauren_hombre_salmon.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_camisa_polo-ralph-lauren_hombre_verde_cuadros.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_chaqueta_polo-ralph-lauren_hombre_azul.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_chaqueta_polo-ralph-lauren_hombre_rojo.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_chaqueta_the-north-face_hombre_azul.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_chaqueta_the-north-face_hombre_gris.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_pantalon_polo-ralph-lauren_hombre_azul.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_pantalon_polo-ralph-lauren_hombre_caqui.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_pantalon_polo-ralph-lauren_hombre_gris.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_pantalon_polo-ralph-lauren_hombre_olivo.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_remera_calvin-klein_hombre_navy.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_remera_calvin-klein_mujer_salmon.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_remera_frida-kahlo_mujer_azul.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_remera_gap_hombre_navy.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_remera_gap_hombre_negra.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_remera_gap_unisex_verde.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_remera_harry-potter_mujer_gris.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_remera_levis_hombre_gris.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_remera_nickelodeon_mujer_azul.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_remera_nike_hombre_gris.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_remera_reebok_hombre_gris.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_remera_reebok_mujer_negro.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_remera_snoopy_nina_coral.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_saco_polo-ralph-lauren_hombre_beige.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_sweater-hoodie_polo-ralph-lauren_hombre_azul.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_casual_sweater-hoodie_the-north-face_mujer_rosado.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_deporte_chaqueta_nike_hombre_azul.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_deporte_conjunto-ciclismo_xtiger_hombre_negro.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_deporte_polo_nike_hombre_negro.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_deporte_remera_adidas_hombre_blanco.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_deporte_remera_nike_hombre_gris.jpg</t>
+  </si>
+  <si>
+    <t>images/vestir_deporte_remera_under-armour_hombre_azul.jpg</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>IdClasficacion</t>
   </si>
 </sst>
 </file>
@@ -628,16 +628,16 @@
     <tableColumn id="1" xr3:uid="{F0AEF119-BE71-483B-8F4E-EAEE36A96068}" uniqueName="1" name="id" queryTableFieldId="12" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{7CCF6AEC-57B0-44B2-B173-C7FA7C1B08FB}" uniqueName="2" name="clasificacion" queryTableFieldId="13"/>
     <tableColumn id="3" xr3:uid="{3604E10F-B460-4B30-A009-FB559EDCB777}" uniqueName="3" name="tipo" queryTableFieldId="14"/>
-    <tableColumn id="4" xr3:uid="{031384C2-8068-46E8-8C75-3BF309952241}" uniqueName="4" name="nombre" queryTableFieldId="15"/>
+    <tableColumn id="4" xr3:uid="{031384C2-8068-46E8-8C75-3BF309952241}" uniqueName="4" name="title" queryTableFieldId="15"/>
     <tableColumn id="5" xr3:uid="{1842771E-5F67-4881-93E7-0CD13AC29E7D}" uniqueName="5" name="marca" queryTableFieldId="16"/>
     <tableColumn id="6" xr3:uid="{910D5E35-826E-4972-A48F-4973BBB6D1CD}" uniqueName="6" name="genero" queryTableFieldId="17"/>
     <tableColumn id="7" xr3:uid="{557F21E6-43D5-4704-9025-D34574C5344F}" uniqueName="7" name="color" queryTableFieldId="18"/>
-    <tableColumn id="8" xr3:uid="{432772A7-F46E-4659-ACC4-CAE96DB966B3}" uniqueName="8" name="precio" queryTableFieldId="19"/>
+    <tableColumn id="8" xr3:uid="{432772A7-F46E-4659-ACC4-CAE96DB966B3}" uniqueName="8" name="price" queryTableFieldId="19"/>
     <tableColumn id="11" xr3:uid="{018A4BF7-3AF2-418D-9B9C-4E97441B43F4}" uniqueName="11" name="stock" queryTableFieldId="11" dataDxfId="2">
       <calculatedColumnFormula>RANDBETWEEN(5,20)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ED895BA0-B7B4-4E9B-A22A-57C03807BB1D}" uniqueName="9" name="img" queryTableFieldId="20"/>
-    <tableColumn id="10" xr3:uid="{2AE39C54-CC78-4ACE-9D94-D7F91CE2EB4C}" uniqueName="10" name="IdClasficación" queryTableFieldId="22" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{ED895BA0-B7B4-4E9B-A22A-57C03807BB1D}" uniqueName="9" name="pictureUrl" queryTableFieldId="20"/>
+    <tableColumn id="10" xr3:uid="{2AE39C54-CC78-4ACE-9D94-D7F91CE2EB4C}" uniqueName="10" name="IdClasficacion" queryTableFieldId="22" dataDxfId="1">
       <calculatedColumnFormula>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{B813C5D0-C344-4D14-A4CD-500F272D5A2B}" uniqueName="12" name="IdGenero" queryTableFieldId="23" dataDxfId="0">
@@ -948,7 +948,7 @@
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -961,7 +961,7 @@
     <col min="8" max="8" width="7.05859375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.1171875" customWidth="1"/>
     <col min="10" max="10" width="60.76171875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.17578125" customWidth="1"/>
+    <col min="11" max="11" width="13.9375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.46875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.9375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.17578125" bestFit="1" customWidth="1"/>
@@ -976,40 +976,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I1" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L1" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
@@ -1039,10 +1039,10 @@
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I33" ca="1" si="0">RANDBETWEEN(5,20)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="K2">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1064,10 +1064,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -1080,10 +1080,10 @@
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="K3">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -1114,17 +1114,17 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>173</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="K4">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -1162,10 +1162,10 @@
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
@@ -1203,10 +1203,10 @@
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="K6">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1225,29 +1225,29 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>219</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="K7">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
@@ -1285,10 +1285,10 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="K8">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
@@ -1326,10 +1326,10 @@
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="K9">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1348,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
         <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
       </c>
       <c r="H10">
         <v>415</v>
@@ -1370,7 +1370,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="K10">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1389,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
       <c r="F11" t="s">
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>306</v>
@@ -1411,7 +1411,7 @@
         <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="K11">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
         <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
@@ -1449,10 +1449,10 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="K12">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1471,29 +1471,29 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H13">
         <v>296</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="K13">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1512,13 +1512,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
         <v>4</v>
@@ -1531,10 +1531,10 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="K14">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1550,32 +1550,32 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H15">
         <v>254</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="K15">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1591,32 +1591,32 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>230</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="K16">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1632,19 +1632,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -1657,7 +1657,7 @@
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="K17">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1673,32 +1673,32 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H18">
         <v>466</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="K18">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1714,32 +1714,32 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>267</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="K19">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1755,19 +1755,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -1777,10 +1777,10 @@
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="K20">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1796,32 +1796,32 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H21">
         <v>207</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="K21">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1837,32 +1837,32 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H22">
         <v>262</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="K22">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1878,16 +1878,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
@@ -1900,10 +1900,10 @@
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="K23">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1919,22 +1919,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H24">
         <v>371</v>
@@ -1944,7 +1944,7 @@
         <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="K24">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -1960,32 +1960,32 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H25">
         <v>203</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="K25">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2001,32 +2001,32 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H26">
         <v>140</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K26">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2042,32 +2042,32 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H27">
         <v>300</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J27" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="K27">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2083,32 +2083,32 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H28">
         <v>191</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J28" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="K28">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2124,32 +2124,32 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H29">
         <v>293</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="K29">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2165,32 +2165,32 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>240</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="K30">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2206,32 +2206,32 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H31">
         <v>436</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J31" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="K31">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2247,32 +2247,32 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H32">
         <v>175</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J32" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="K32">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2288,19 +2288,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G33" t="s">
         <v>5</v>
@@ -2310,10 +2310,10 @@
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J33" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="K33">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2329,32 +2329,32 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
         <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" t="s">
-        <v>70</v>
       </c>
       <c r="H34">
         <v>278</v>
       </c>
       <c r="I34">
         <f t="shared" ref="I34:I65" ca="1" si="1">RANDBETWEEN(5,20)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="K34">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2370,16 +2370,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
         <v>4</v>
@@ -2392,10 +2392,10 @@
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J35" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="K35">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2411,32 +2411,32 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>311</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="K36">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2452,32 +2452,32 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H37">
         <v>259</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J37" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="K37">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2493,32 +2493,32 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G38" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>218</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="K38">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2534,16 +2534,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s">
         <v>4</v>
@@ -2556,10 +2556,10 @@
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J39" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="K39">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2575,32 +2575,32 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H40">
         <v>301</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J40" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K40">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2616,32 +2616,32 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H41">
         <v>498</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J41" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="K41">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2657,32 +2657,32 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H42">
         <v>450</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="K42">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2698,32 +2698,32 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H43">
         <v>164</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="K43">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2739,32 +2739,32 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H44">
         <v>457</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="K44">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2780,32 +2780,32 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H45">
         <v>488</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J45" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="K45">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2821,32 +2821,32 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H46">
         <v>283</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J46" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="K46">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2862,32 +2862,32 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H47">
         <v>375</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J47" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="K47">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2903,32 +2903,32 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>449</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="K48">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2944,32 +2944,32 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
         <v>4</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <v>105</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J49" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K49">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -2985,32 +2985,32 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
         <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H50">
         <v>489</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J50" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="K50">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3026,32 +3026,32 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H51">
         <v>123</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J51" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="K51">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3067,32 +3067,32 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H52">
         <v>353</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J52" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K52">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3108,32 +3108,32 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F53" t="s">
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H53">
         <v>145</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J53" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="K53">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3149,32 +3149,32 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
         <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H54">
         <v>107</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J54" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="K54">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3190,32 +3190,32 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H55">
         <v>438</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J55" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="K55">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3231,32 +3231,32 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="H56">
         <v>210</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J56" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="K56">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3272,32 +3272,32 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
         <v>4</v>
       </c>
       <c r="G57" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H57">
         <v>206</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J57" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="K57">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3313,32 +3313,32 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="E58" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F58" t="s">
         <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>391</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J58" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K58">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3354,32 +3354,32 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="F59" t="s">
         <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="H59">
         <v>242</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J59" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="K59">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3395,32 +3395,32 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E60" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G60" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="H60">
         <v>499</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J60" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="K60">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3436,32 +3436,32 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H61">
         <v>456</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K61">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3477,32 +3477,32 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="F62" t="s">
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="H62">
         <v>450</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J62" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="K62">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3518,32 +3518,32 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="F63" t="s">
         <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="H63">
         <v>476</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J63" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="K63">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3559,32 +3559,32 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H64">
         <v>116</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J64" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="K64">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3600,32 +3600,32 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G65" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H65">
         <v>483</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J65" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="K65">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3641,32 +3641,32 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="F66" t="s">
         <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H66">
         <v>226</v>
       </c>
       <c r="I66">
         <f t="shared" ref="I66:I80" ca="1" si="2">RANDBETWEEN(5,20)</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J66" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="K66">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3682,32 +3682,32 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H67">
         <v>467</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J67" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="K67">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3723,32 +3723,32 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
         <v>4</v>
       </c>
       <c r="G68" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H68">
         <v>199</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J68" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="K68">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3764,32 +3764,32 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E69" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="F69" t="s">
         <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H69">
         <v>221</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J69" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K69">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3805,19 +3805,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E70" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G70" t="s">
         <v>5</v>
@@ -3827,10 +3827,10 @@
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J70" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="K70">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3846,32 +3846,32 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G71" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="H71">
         <v>470</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J71" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="K71">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3887,32 +3887,32 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="E72" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="H72">
         <v>444</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J72" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="K72">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3928,32 +3928,32 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="E73" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
         <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H73">
         <v>216</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J73" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="K73">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -3969,32 +3969,32 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G74" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="H74">
         <v>304</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J74" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K74">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -4010,32 +4010,32 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
         <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H75">
         <v>378</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J75" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="K75">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -4051,16 +4051,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="E76" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="F76" t="s">
         <v>4</v>
@@ -4073,10 +4073,10 @@
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J76" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K76">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -4092,16 +4092,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F77" t="s">
         <v>4</v>
@@ -4114,10 +4114,10 @@
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J77" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="K77">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -4133,32 +4133,32 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E78" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="F78" t="s">
         <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H78">
         <v>116</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J78" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="K78">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -4174,32 +4174,32 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>4</v>
       </c>
       <c r="G79" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H79">
         <v>200</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J79" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="K79">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
@@ -4215,32 +4215,32 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="F80" t="s">
         <v>4</v>
       </c>
       <c r="G80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H80">
         <v>98</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J80" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="K80">
         <f>IF(listaProductos[[#This Row],[clasificacion]]="accesorio",1,IF(listaProductos[[#This Row],[clasificacion]]="calzado",2,IF(listaProductos[[#This Row],[clasificacion]]="vestir",3)))</f>
